--- a/notebooks/VPS13C/input/VPS13C_PARK23_individuals.xlsx
+++ b/notebooks/VPS13C/input/VPS13C_PARK23_individuals.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10414"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10609"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robin/GIT/phenopacket-store/notebooks/VPS13C/input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74D11AED-2EE8-BD4B-95FB-E8E2B6F6BD85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AB8FABD-AB43-374F-BD09-7B1235DAB9BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4960" yWindow="7900" windowWidth="31940" windowHeight="10020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1620" yWindow="10380" windowWidth="36780" windowHeight="10020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="122">
   <si>
     <t>PMID</t>
   </si>
@@ -356,6 +356,36 @@
   </si>
   <si>
     <t>no</t>
+  </si>
+  <si>
+    <t>PMID:28862745</t>
+  </si>
+  <si>
+    <t>Diagnostic exome sequencing in early-onset Parkinson's disease confirms VPS13C as a rare cause of autosomal-recessive Parkinson's disease</t>
+  </si>
+  <si>
+    <t>PD Case 5</t>
+  </si>
+  <si>
+    <t>c.2029+2T&gt;G</t>
+  </si>
+  <si>
+    <t>c.3215-1G&gt;T</t>
+  </si>
+  <si>
+    <t>ha</t>
+  </si>
+  <si>
+    <t>Dysarthria</t>
+  </si>
+  <si>
+    <t>HP:0001260</t>
+  </si>
+  <si>
+    <t>Micrographia</t>
+  </si>
+  <si>
+    <t>HP:0031908</t>
   </si>
 </sst>
 </file>
@@ -415,7 +445,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -427,6 +457,9 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -731,15 +764,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AQ12"/>
+  <dimension ref="A1:AS12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="O6" sqref="O6"/>
+    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="V6" sqref="V6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:43" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:45" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -839,38 +872,44 @@
       <c r="AG1" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="AH1" s="3" t="s">
+      <c r="AH1" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="AI1" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="AJ1" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="AI1" s="3" t="s">
+      <c r="AK1" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="AJ1" s="3" t="s">
+      <c r="AL1" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="AK1" s="3" t="s">
+      <c r="AM1" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="AL1" s="3" t="s">
+      <c r="AN1" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="AM1" s="3" t="s">
+      <c r="AO1" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="AN1" s="3" t="s">
+      <c r="AP1" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="AO1" s="3" t="s">
+      <c r="AQ1" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="AP1" s="3" t="s">
+      <c r="AR1" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="AQ1" s="3" t="s">
+      <c r="AS1" s="3" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="2" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>30</v>
       </c>
@@ -971,37 +1010,43 @@
         <v>72</v>
       </c>
       <c r="AH2" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="AI2" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="AJ2" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="AI2" s="4" t="s">
+      <c r="AK2" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="AJ2" s="4" t="s">
+      <c r="AL2" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="AK2" s="4" t="s">
+      <c r="AM2" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="AL2" s="4" t="s">
+      <c r="AN2" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="AM2" s="4" t="s">
+      <c r="AO2" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="AN2" s="4" t="s">
+      <c r="AP2" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="AO2" s="4" t="s">
+      <c r="AQ2" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="AP2" s="4" t="s">
+      <c r="AR2" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="AQ2" s="4" t="s">
+      <c r="AS2" s="4" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="3" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>55</v>
       </c>
@@ -1100,22 +1145,22 @@
         <v>65</v>
       </c>
       <c r="AH3" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="AI3" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="AJ3" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="AI3" s="4" t="s">
+      <c r="AK3" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="AJ3" s="4" t="s">
+      <c r="AL3" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="AK3" s="4" t="s">
+      <c r="AM3" s="4" t="s">
         <v>80</v>
-      </c>
-      <c r="AL3" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="AM3" s="4" t="s">
-        <v>86</v>
       </c>
       <c r="AN3" s="4" t="s">
         <v>86</v>
@@ -1127,10 +1172,16 @@
         <v>86</v>
       </c>
       <c r="AQ3" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="AR3" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="AS3" s="4" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="4" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
         <v>55</v>
       </c>
@@ -1229,23 +1280,23 @@
         <v>41</v>
       </c>
       <c r="AH4" s="4" t="s">
-        <v>75</v>
+        <v>41</v>
       </c>
       <c r="AI4" s="4" t="s">
-        <v>75</v>
+        <v>41</v>
       </c>
       <c r="AJ4" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="AK4" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="AL4" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="AK4" s="4" t="s">
+      <c r="AM4" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="AL4" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="AM4" s="4" t="s">
-        <v>75</v>
-      </c>
       <c r="AN4" s="4" t="s">
         <v>75</v>
       </c>
@@ -1253,13 +1304,19 @@
         <v>75</v>
       </c>
       <c r="AP4" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="AQ4" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="AR4" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="AQ4" s="4" t="s">
+      <c r="AS4" s="4" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="5" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
         <v>55</v>
       </c>
@@ -1358,10 +1415,10 @@
         <v>67</v>
       </c>
       <c r="AH5" s="4" t="s">
-        <v>75</v>
+        <v>41</v>
       </c>
       <c r="AI5" s="4" t="s">
-        <v>75</v>
+        <v>41</v>
       </c>
       <c r="AJ5" s="4" t="s">
         <v>75</v>
@@ -1382,49 +1439,101 @@
         <v>75</v>
       </c>
       <c r="AP5" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="AQ5" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="AR5" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="AQ5" s="4" t="s">
+      <c r="AS5" s="4" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="6" spans="1:43" x14ac:dyDescent="0.2">
-      <c r="A6" s="4"/>
-      <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
+    <row r="6" spans="1:45" x14ac:dyDescent="0.2">
+      <c r="A6" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>114</v>
+      </c>
       <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
-      <c r="H6" s="4"/>
-      <c r="I6" s="4"/>
-      <c r="J6" s="4"/>
-      <c r="K6" s="4"/>
+      <c r="E6" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="I6" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="J6" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="K6" s="4" t="s">
+        <v>116</v>
+      </c>
       <c r="L6" s="4"/>
-      <c r="M6" s="4"/>
-      <c r="N6" s="4"/>
-      <c r="O6" s="4"/>
-      <c r="P6" s="4"/>
-      <c r="Q6" s="4"/>
+      <c r="M6" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="N6" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="O6" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="P6" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q6" s="4" t="s">
+        <v>117</v>
+      </c>
       <c r="R6" s="4"/>
       <c r="S6" s="4"/>
       <c r="T6" s="4"/>
-      <c r="U6" s="4"/>
-      <c r="V6" s="4"/>
+      <c r="U6" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="V6" s="4" t="s">
+        <v>70</v>
+      </c>
       <c r="W6" s="4"/>
       <c r="X6" s="4"/>
       <c r="Y6" s="4"/>
       <c r="Z6" s="4"/>
       <c r="AA6" s="4"/>
       <c r="AB6" s="4"/>
-      <c r="AC6" s="4"/>
+      <c r="AC6" s="4" t="s">
+        <v>70</v>
+      </c>
       <c r="AD6" s="4"/>
-      <c r="AE6" s="4"/>
+      <c r="AE6" s="4" t="s">
+        <v>70</v>
+      </c>
       <c r="AF6" s="4"/>
-      <c r="AG6" s="4"/>
-      <c r="AH6" s="4"/>
-      <c r="AI6" s="4"/>
-      <c r="AJ6" s="4"/>
+      <c r="AG6" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="AH6" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="AI6" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="AJ6" s="4" t="s">
+        <v>70</v>
+      </c>
       <c r="AK6" s="4"/>
       <c r="AL6" s="4"/>
       <c r="AM6" s="4"/>
@@ -1432,8 +1541,10 @@
       <c r="AO6" s="4"/>
       <c r="AP6" s="4"/>
       <c r="AQ6" s="4"/>
+      <c r="AR6" s="4"/>
+      <c r="AS6" s="4"/>
     </row>
-    <row r="7" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A7" s="4"/>
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
@@ -1477,8 +1588,10 @@
       <c r="AO7" s="4"/>
       <c r="AP7" s="4"/>
       <c r="AQ7" s="4"/>
+      <c r="AR7" s="4"/>
+      <c r="AS7" s="4"/>
     </row>
-    <row r="8" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A8" s="4"/>
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
@@ -1522,8 +1635,10 @@
       <c r="AO8" s="4"/>
       <c r="AP8" s="4"/>
       <c r="AQ8" s="4"/>
+      <c r="AR8" s="4"/>
+      <c r="AS8" s="4"/>
     </row>
-    <row r="9" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A9" s="4"/>
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
@@ -1567,8 +1682,10 @@
       <c r="AO9" s="4"/>
       <c r="AP9" s="4"/>
       <c r="AQ9" s="4"/>
+      <c r="AR9" s="4"/>
+      <c r="AS9" s="4"/>
     </row>
-    <row r="10" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A10" s="4"/>
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
@@ -1612,8 +1729,10 @@
       <c r="AO10" s="4"/>
       <c r="AP10" s="4"/>
       <c r="AQ10" s="4"/>
+      <c r="AR10" s="4"/>
+      <c r="AS10" s="4"/>
     </row>
-    <row r="11" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A11" s="4"/>
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
@@ -1657,8 +1776,10 @@
       <c r="AO11" s="4"/>
       <c r="AP11" s="4"/>
       <c r="AQ11" s="4"/>
+      <c r="AR11" s="4"/>
+      <c r="AS11" s="4"/>
     </row>
-    <row r="12" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A12" s="4"/>
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
@@ -1702,6 +1823,8 @@
       <c r="AO12" s="4"/>
       <c r="AP12" s="4"/>
       <c r="AQ12" s="4"/>
+      <c r="AR12" s="4"/>
+      <c r="AS12" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
